--- a/performance/courbe_taux_sigma_mult.xlsx
+++ b/performance/courbe_taux_sigma_mult.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\joris\cours\pre2\performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED802447-0E6E-4B40-B118-00A634A43426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A2F740-42AD-4F47-AC37-55BF2639F96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2115" yWindow="855" windowWidth="21960" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="courbe_taux_sigma_mult" sheetId="1" r:id="rId1"/>
@@ -2344,15 +2344,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2680,7 +2680,7 @@
   <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
